--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ltb</t>
   </si>
   <si>
     <t>Tnfrsf1a</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H2">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I2">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J2">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N2">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O2">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P2">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q2">
-        <v>116.7164183157666</v>
+        <v>11.58258068504425</v>
       </c>
       <c r="R2">
-        <v>116.7164183157666</v>
+        <v>46.330322740177</v>
       </c>
       <c r="S2">
-        <v>0.08522276958335022</v>
+        <v>0.007159182364998962</v>
       </c>
       <c r="T2">
-        <v>0.08522276958335022</v>
+        <v>0.003585323538438701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H3">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I3">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J3">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N3">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O3">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P3">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q3">
-        <v>110.151595002924</v>
+        <v>11.71285896784383</v>
       </c>
       <c r="R3">
-        <v>110.151595002924</v>
+        <v>70.277153807063</v>
       </c>
       <c r="S3">
-        <v>0.08042933578355531</v>
+        <v>0.007239707250611495</v>
       </c>
       <c r="T3">
-        <v>0.08042933578355531</v>
+        <v>0.005438475686258027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H4">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I4">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J4">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N4">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O4">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P4">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q4">
-        <v>109.9748843998569</v>
+        <v>10.969660942508</v>
       </c>
       <c r="R4">
-        <v>109.9748843998569</v>
+        <v>65.817965655048</v>
       </c>
       <c r="S4">
-        <v>0.08030030708968833</v>
+        <v>0.00678033724133916</v>
       </c>
       <c r="T4">
-        <v>0.08030030708968833</v>
+        <v>0.005093396453087002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H5">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I5">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J5">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N5">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O5">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P5">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q5">
-        <v>114.1844626562836</v>
+        <v>11.20943909338733</v>
       </c>
       <c r="R5">
-        <v>114.1844626562836</v>
+        <v>67.256634560324</v>
       </c>
       <c r="S5">
-        <v>0.08337401276852396</v>
+        <v>0.006928543893722244</v>
       </c>
       <c r="T5">
-        <v>0.08337401276852396</v>
+        <v>0.005204729445931294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H6">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I6">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J6">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N6">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O6">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P6">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q6">
-        <v>69.96461307484259</v>
+        <v>7.145961775467501</v>
       </c>
       <c r="R6">
-        <v>69.96461307484259</v>
+        <v>42.875770652805</v>
       </c>
       <c r="S6">
-        <v>0.05108602701407697</v>
+        <v>0.004416912337156592</v>
       </c>
       <c r="T6">
-        <v>0.05108602701407697</v>
+        <v>0.003317989184152481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H7">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I7">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J7">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N7">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O7">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P7">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q7">
-        <v>53.10889966839456</v>
+        <v>5.29871222896625</v>
       </c>
       <c r="R7">
-        <v>53.10889966839456</v>
+        <v>21.194848915865</v>
       </c>
       <c r="S7">
-        <v>0.0387784990713123</v>
+        <v>0.003275129107954459</v>
       </c>
       <c r="T7">
-        <v>0.0387784990713123</v>
+        <v>0.001640186949222458</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H8">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I8">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J8">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N8">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O8">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P8">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q8">
-        <v>139.3703496856773</v>
+        <v>132.9526146017055</v>
       </c>
       <c r="R8">
-        <v>139.3703496856773</v>
+        <v>797.715687610233</v>
       </c>
       <c r="S8">
-        <v>0.1017639794761329</v>
+        <v>0.08217788761584588</v>
       </c>
       <c r="T8">
-        <v>0.1017639794761329</v>
+        <v>0.06173211544003709</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H9">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I9">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J9">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N9">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O9">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P9">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q9">
-        <v>131.5313349700246</v>
+        <v>134.448035941303</v>
       </c>
       <c r="R9">
-        <v>131.5313349700246</v>
+        <v>1210.032323471727</v>
       </c>
       <c r="S9">
-        <v>0.0960401699683294</v>
+        <v>0.08310220615709406</v>
       </c>
       <c r="T9">
-        <v>0.0960401699683294</v>
+        <v>0.09363969674773479</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H10">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I10">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J10">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N10">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O10">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P10">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q10">
-        <v>131.3203259372081</v>
+        <v>125.917111502088</v>
       </c>
       <c r="R10">
-        <v>131.3203259372081</v>
+        <v>1133.254003518792</v>
       </c>
       <c r="S10">
-        <v>0.09588609760693224</v>
+        <v>0.07782924968365221</v>
       </c>
       <c r="T10">
-        <v>0.09588609760693224</v>
+        <v>0.0876981210908417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H11">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I11">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J11">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N11">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O11">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P11">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q11">
-        <v>136.346957169501</v>
+        <v>128.669445627844</v>
       </c>
       <c r="R11">
-        <v>136.346957169501</v>
+        <v>1158.025010650596</v>
       </c>
       <c r="S11">
-        <v>0.09955639045408952</v>
+        <v>0.07953046485076433</v>
       </c>
       <c r="T11">
-        <v>0.09955639045408952</v>
+        <v>0.08961505301981948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H12">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I12">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J12">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N12">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O12">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P12">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q12">
-        <v>83.54430962303363</v>
+        <v>82.026132839205</v>
       </c>
       <c r="R12">
-        <v>83.54430962303363</v>
+        <v>738.235195552845</v>
       </c>
       <c r="S12">
-        <v>0.06100150734356518</v>
+        <v>0.05070027653247945</v>
       </c>
       <c r="T12">
-        <v>0.06100150734356518</v>
+        <v>0.05712915142773729</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H13">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I13">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J13">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N13">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O13">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P13">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q13">
-        <v>63.41700700736657</v>
+        <v>60.8221659765975</v>
       </c>
       <c r="R13">
-        <v>63.41700700736657</v>
+        <v>364.932995859585</v>
       </c>
       <c r="S13">
-        <v>0.04630516472183787</v>
+        <v>0.03759412430624766</v>
       </c>
       <c r="T13">
-        <v>0.04630516472183787</v>
+        <v>0.02824074564181041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.460258554205749</v>
+        <v>2.895335666666667</v>
       </c>
       <c r="H14">
-        <v>0.460258554205749</v>
+        <v>8.686007</v>
       </c>
       <c r="I14">
-        <v>0.08025573911860565</v>
+        <v>0.4393161543288184</v>
       </c>
       <c r="J14">
-        <v>0.08025573911860565</v>
+        <v>0.4469286313282209</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N14">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O14">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P14">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q14">
-        <v>22.34581254658257</v>
+        <v>142.1352373562532</v>
       </c>
       <c r="R14">
-        <v>22.34581254658257</v>
+        <v>852.8114241375191</v>
       </c>
       <c r="S14">
-        <v>0.01631623092355371</v>
+        <v>0.08785365821278041</v>
       </c>
       <c r="T14">
-        <v>0.01631623092355371</v>
+        <v>0.06599576027037182</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.460258554205749</v>
+        <v>2.895335666666667</v>
       </c>
       <c r="H15">
-        <v>0.460258554205749</v>
+        <v>8.686007</v>
       </c>
       <c r="I15">
-        <v>0.08025573911860565</v>
+        <v>0.4393161543288184</v>
       </c>
       <c r="J15">
-        <v>0.08025573911860565</v>
+        <v>0.4469286313282209</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N15">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O15">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P15">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q15">
-        <v>21.08895157306175</v>
+        <v>143.7339427874179</v>
       </c>
       <c r="R15">
-        <v>21.08895157306175</v>
+        <v>1293.605485086761</v>
       </c>
       <c r="S15">
-        <v>0.01539850936654976</v>
+        <v>0.08884181655510916</v>
       </c>
       <c r="T15">
-        <v>0.01539850936654976</v>
+        <v>0.1001070987816145</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.460258554205749</v>
+        <v>2.895335666666667</v>
       </c>
       <c r="H16">
-        <v>0.460258554205749</v>
+        <v>8.686007</v>
       </c>
       <c r="I16">
-        <v>0.08025573911860565</v>
+        <v>0.4393161543288184</v>
       </c>
       <c r="J16">
-        <v>0.08025573911860565</v>
+        <v>0.4469286313282209</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N16">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O16">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P16">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q16">
-        <v>21.05511964034731</v>
+        <v>134.6138139831173</v>
       </c>
       <c r="R16">
-        <v>21.05511964034731</v>
+        <v>1211.524325848056</v>
       </c>
       <c r="S16">
-        <v>0.01537380632092955</v>
+        <v>0.08320467341078595</v>
       </c>
       <c r="T16">
-        <v>0.01537380632092955</v>
+        <v>0.09375515701053627</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.460258554205749</v>
+        <v>2.895335666666667</v>
       </c>
       <c r="H17">
-        <v>0.460258554205749</v>
+        <v>8.686007</v>
       </c>
       <c r="I17">
-        <v>0.08025573911860565</v>
+        <v>0.4393161543288184</v>
       </c>
       <c r="J17">
-        <v>0.08025573911860565</v>
+        <v>0.4469286313282209</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N17">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O17">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P17">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q17">
-        <v>21.86105978120899</v>
+        <v>137.5562432495142</v>
       </c>
       <c r="R17">
-        <v>21.86105978120899</v>
+        <v>1238.006189245628</v>
       </c>
       <c r="S17">
-        <v>0.015962279235998</v>
+        <v>0.08502338620779204</v>
       </c>
       <c r="T17">
-        <v>0.015962279235998</v>
+        <v>0.09580448545388635</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.460258554205749</v>
+        <v>2.895335666666667</v>
       </c>
       <c r="H18">
-        <v>0.460258554205749</v>
+        <v>8.686007</v>
       </c>
       <c r="I18">
-        <v>0.08025573911860565</v>
+        <v>0.4393161543288184</v>
       </c>
       <c r="J18">
-        <v>0.08025573911860565</v>
+        <v>0.4469286313282209</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N18">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O18">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P18">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q18">
-        <v>13.39499747529023</v>
+        <v>87.69142220664834</v>
       </c>
       <c r="R18">
-        <v>13.39499747529023</v>
+        <v>789.222799859835</v>
       </c>
       <c r="S18">
-        <v>0.009780618698543544</v>
+        <v>0.0542019866292964</v>
       </c>
       <c r="T18">
-        <v>0.009780618698543544</v>
+        <v>0.06107488387850483</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.895335666666667</v>
+      </c>
+      <c r="H19">
+        <v>8.686007</v>
+      </c>
+      <c r="I19">
+        <v>0.4393161543288184</v>
+      </c>
+      <c r="J19">
+        <v>0.4469286313282209</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>22.4578325</v>
+      </c>
+      <c r="N19">
+        <v>44.915665</v>
+      </c>
+      <c r="O19">
+        <v>0.09148453321607808</v>
+      </c>
+      <c r="P19">
+        <v>0.06755272277719647</v>
+      </c>
+      <c r="Q19">
+        <v>65.02296343327583</v>
+      </c>
+      <c r="R19">
+        <v>390.1377805996551</v>
+      </c>
+      <c r="S19">
+        <v>0.04019063331305447</v>
+      </c>
+      <c r="T19">
+        <v>0.03019124593330715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.950494</v>
+      </c>
+      <c r="I20">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J20">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>49.0911085</v>
+      </c>
+      <c r="N20">
+        <v>98.18221700000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1999782101047527</v>
+      </c>
+      <c r="P20">
+        <v>0.1476650982825601</v>
+      </c>
+      <c r="Q20">
+        <v>31.91730419419967</v>
+      </c>
+      <c r="R20">
+        <v>191.503825165198</v>
+      </c>
+      <c r="S20">
+        <v>0.01972805608170462</v>
+      </c>
+      <c r="T20">
+        <v>0.01481973643732945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.950494</v>
+      </c>
+      <c r="I21">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J21">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>49.64327433333333</v>
+      </c>
+      <c r="N21">
+        <v>148.929823</v>
+      </c>
+      <c r="O21">
+        <v>0.2022275203852691</v>
+      </c>
+      <c r="P21">
+        <v>0.2239890035330867</v>
+      </c>
+      <c r="Q21">
+        <v>32.27630290917356</v>
+      </c>
+      <c r="R21">
+        <v>290.4867261825621</v>
+      </c>
+      <c r="S21">
+        <v>0.01994995285403766</v>
+      </c>
+      <c r="T21">
+        <v>0.02247963828845019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.950494</v>
+      </c>
+      <c r="I22">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J22">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>46.493336</v>
+      </c>
+      <c r="N22">
+        <v>139.480008</v>
+      </c>
+      <c r="O22">
+        <v>0.1893958885666406</v>
+      </c>
+      <c r="P22">
+        <v>0.209776573794135</v>
+      </c>
+      <c r="Q22">
+        <v>30.22832430266133</v>
+      </c>
+      <c r="R22">
+        <v>272.054918723952</v>
+      </c>
+      <c r="S22">
+        <v>0.01868409917925435</v>
+      </c>
+      <c r="T22">
+        <v>0.021053272374534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.950494</v>
+      </c>
+      <c r="I23">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J23">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>47.50960133333334</v>
+      </c>
+      <c r="N23">
+        <v>142.528804</v>
+      </c>
+      <c r="O23">
+        <v>0.193535760909338</v>
+      </c>
+      <c r="P23">
+        <v>0.2143619332893629</v>
+      </c>
+      <c r="Q23">
+        <v>30.88906411435289</v>
+      </c>
+      <c r="R23">
+        <v>278.001577029176</v>
+      </c>
+      <c r="S23">
+        <v>0.01909250184324985</v>
+      </c>
+      <c r="T23">
+        <v>0.02151346113938115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.950494</v>
+      </c>
+      <c r="I24">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J24">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>30.287135</v>
+      </c>
+      <c r="N24">
+        <v>90.861405</v>
+      </c>
+      <c r="O24">
+        <v>0.1233780868179216</v>
+      </c>
+      <c r="P24">
+        <v>0.1366546683236589</v>
+      </c>
+      <c r="Q24">
+        <v>19.69162503156334</v>
+      </c>
+      <c r="R24">
+        <v>177.22462528407</v>
+      </c>
+      <c r="S24">
+        <v>0.01217137514493401</v>
+      </c>
+      <c r="T24">
+        <v>0.01371472467794701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.950494</v>
+      </c>
+      <c r="I25">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J25">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>22.4578325</v>
+      </c>
+      <c r="N25">
+        <v>44.915665</v>
+      </c>
+      <c r="O25">
+        <v>0.09148453321607808</v>
+      </c>
+      <c r="P25">
+        <v>0.06755272277719647</v>
+      </c>
+      <c r="Q25">
+        <v>14.60128918141834</v>
+      </c>
+      <c r="R25">
+        <v>87.60773508851001</v>
+      </c>
+      <c r="S25">
+        <v>0.009025043283215508</v>
+      </c>
+      <c r="T25">
+        <v>0.006779621988036621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.1008275</v>
+      </c>
+      <c r="H26">
+        <v>0.201655</v>
+      </c>
+      <c r="I26">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J26">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>49.0911085</v>
+      </c>
+      <c r="N26">
+        <v>98.18221700000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1999782101047527</v>
+      </c>
+      <c r="P26">
+        <v>0.1476650982825601</v>
+      </c>
+      <c r="Q26">
+        <v>4.94973374228375</v>
+      </c>
+      <c r="R26">
+        <v>19.798934969135</v>
+      </c>
+      <c r="S26">
+        <v>0.003059425829422811</v>
+      </c>
+      <c r="T26">
+        <v>0.001532162596383106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.460258554205749</v>
-      </c>
-      <c r="H19">
-        <v>0.460258554205749</v>
-      </c>
-      <c r="I19">
-        <v>0.08025573911860565</v>
-      </c>
-      <c r="J19">
-        <v>0.08025573911860565</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>22.0917252885711</v>
-      </c>
-      <c r="N19">
-        <v>22.0917252885711</v>
-      </c>
-      <c r="O19">
-        <v>0.09250795836618125</v>
-      </c>
-      <c r="P19">
-        <v>0.09250795836618125</v>
-      </c>
-      <c r="Q19">
-        <v>10.16790554122832</v>
-      </c>
-      <c r="R19">
-        <v>10.16790554122832</v>
-      </c>
-      <c r="S19">
-        <v>0.007424294573031075</v>
-      </c>
-      <c r="T19">
-        <v>0.007424294573031075</v>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.1008275</v>
+      </c>
+      <c r="H27">
+        <v>0.201655</v>
+      </c>
+      <c r="I27">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J27">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>49.64327433333333</v>
+      </c>
+      <c r="N27">
+        <v>148.929823</v>
+      </c>
+      <c r="O27">
+        <v>0.2022275203852691</v>
+      </c>
+      <c r="P27">
+        <v>0.2239890035330867</v>
+      </c>
+      <c r="Q27">
+        <v>5.005407242844166</v>
+      </c>
+      <c r="R27">
+        <v>30.032443457065</v>
+      </c>
+      <c r="S27">
+        <v>0.003093837568416743</v>
+      </c>
+      <c r="T27">
+        <v>0.002324094029029273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.1008275</v>
+      </c>
+      <c r="H28">
+        <v>0.201655</v>
+      </c>
+      <c r="I28">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J28">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>46.493336</v>
+      </c>
+      <c r="N28">
+        <v>139.480008</v>
+      </c>
+      <c r="O28">
+        <v>0.1893958885666406</v>
+      </c>
+      <c r="P28">
+        <v>0.209776573794135</v>
+      </c>
+      <c r="Q28">
+        <v>4.68780683554</v>
+      </c>
+      <c r="R28">
+        <v>28.12684101324</v>
+      </c>
+      <c r="S28">
+        <v>0.002897529051608877</v>
+      </c>
+      <c r="T28">
+        <v>0.002176626865136039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.1008275</v>
+      </c>
+      <c r="H29">
+        <v>0.201655</v>
+      </c>
+      <c r="I29">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J29">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>47.50960133333334</v>
+      </c>
+      <c r="N29">
+        <v>142.528804</v>
+      </c>
+      <c r="O29">
+        <v>0.193535760909338</v>
+      </c>
+      <c r="P29">
+        <v>0.2143619332893629</v>
+      </c>
+      <c r="Q29">
+        <v>4.790274328436667</v>
+      </c>
+      <c r="R29">
+        <v>28.74164597062</v>
+      </c>
+      <c r="S29">
+        <v>0.002960864113809539</v>
+      </c>
+      <c r="T29">
+        <v>0.002224204230344674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.1008275</v>
+      </c>
+      <c r="H30">
+        <v>0.201655</v>
+      </c>
+      <c r="I30">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J30">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>30.287135</v>
+      </c>
+      <c r="N30">
+        <v>90.861405</v>
+      </c>
+      <c r="O30">
+        <v>0.1233780868179216</v>
+      </c>
+      <c r="P30">
+        <v>0.1366546683236589</v>
+      </c>
+      <c r="Q30">
+        <v>3.0537761042125</v>
+      </c>
+      <c r="R30">
+        <v>18.322656625275</v>
+      </c>
+      <c r="S30">
+        <v>0.001887536174055138</v>
+      </c>
+      <c r="T30">
+        <v>0.00141791915531727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.1008275</v>
+      </c>
+      <c r="H31">
+        <v>0.201655</v>
+      </c>
+      <c r="I31">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J31">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>22.4578325</v>
+      </c>
+      <c r="N31">
+        <v>44.915665</v>
+      </c>
+      <c r="O31">
+        <v>0.09148453321607808</v>
+      </c>
+      <c r="P31">
+        <v>0.06755272277719647</v>
+      </c>
+      <c r="Q31">
+        <v>2.26436710639375</v>
+      </c>
+      <c r="R31">
+        <v>9.057468425575001</v>
+      </c>
+      <c r="S31">
+        <v>0.001399603205605982</v>
+      </c>
+      <c r="T31">
+        <v>0.000700922264819848</v>
       </c>
     </row>
   </sheetData>
